--- a/results/mp/logistic/corona/confidence/126/0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,63 +55,69 @@
     <t>no</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -124,21 +130,21 @@
     <t>please</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>well</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
@@ -151,13 +157,10 @@
     <t>and</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>the</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -626,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -634,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4338624338624338</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3856589147286822</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C5">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D5">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2147651006711409</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0.875</v>
@@ -784,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1472222222222222</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,21 +829,45 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.006053550640279395</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+      <c r="E8">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>4269</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -852,21 +879,45 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.005254963020630596</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>5111</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -878,21 +929,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8205128205128205</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -909,16 +960,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -930,21 +981,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7924528301886793</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -956,21 +1007,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -982,21 +1033,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7816901408450704</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1008,21 +1059,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.765625</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1034,21 +1085,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.76875</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1060,21 +1111,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1086,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.725</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1112,21 +1163,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1138,21 +1189,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6825396825396826</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1164,12 +1215,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.6744186046511628</v>
@@ -1195,16 +1246,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1216,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6264705882352941</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L23">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M23">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1242,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5774058577405857</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L24">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M24">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1268,47 +1319,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5748299319727891</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L25">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5531914893617021</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L26">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1320,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5428571428571428</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1346,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5384615384615384</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1372,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4831460674157304</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1398,21 +1449,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.3561643835616438</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1424,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.3205128205128205</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1450,137 +1501,163 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.0342237061769616</v>
+        <v>0.02422723475355054</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1157</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.01275797373358349</v>
+        <v>0.01164100638377769</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N33">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="O33">
-        <v>0.1899999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>2631</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.009240658899156288</v>
+        <v>0.01026272577996716</v>
       </c>
       <c r="L34">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="N34">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="O34">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>4932</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="K35">
-        <v>0.007897793263646922</v>
+        <v>0.007670850767085077</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N35">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O35">
-        <v>0.4</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>4271</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.00524985417071748</v>
+        <v>0.005824462743522796</v>
       </c>
       <c r="L36">
+        <v>29</v>
+      </c>
+      <c r="M36">
+        <v>46</v>
+      </c>
+      <c r="N36">
+        <v>0.63</v>
+      </c>
+      <c r="O36">
+        <v>0.37</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37">
+        <v>0.005254963020630596</v>
+      </c>
+      <c r="L37">
         <v>27</v>
       </c>
-      <c r="M36">
-        <v>49</v>
-      </c>
-      <c r="N36">
-        <v>0.55</v>
-      </c>
-      <c r="O36">
-        <v>0.45</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>5116</v>
+      <c r="M37">
+        <v>54</v>
+      </c>
+      <c r="N37">
+        <v>0.5</v>
+      </c>
+      <c r="O37">
+        <v>0.5</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>5111</v>
       </c>
     </row>
   </sheetData>
